--- a/farmServer/config/Tags.xlsx
+++ b/farmServer/config/Tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,21 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Tag</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>201|501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701|702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TagID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Buildings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201|501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>701|702</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,57 +377,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>601</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>401</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
